--- a/assets/grades.xlsx
+++ b/assets/grades.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/Intro-DS-F23/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30ABA9DC-6F31-2B44-BB2D-3E177D8A7FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867C503E-74B5-7245-B724-D9808CB104C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Assignment</t>
   </si>
@@ -47,13 +47,13 @@
     <t>Homeworks</t>
   </si>
   <si>
-    <t>Quizzes</t>
+    <t>Final Project</t>
   </si>
   <si>
-    <t>Mini-Projects</t>
+    <t>In-Class</t>
   </si>
   <si>
-    <t>Final Project</t>
+    <t>Midterm</t>
   </si>
 </sst>
 </file>
@@ -109,6 +109,264 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A487-F644-88C2-8C244AA3AD27}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A487-F644-88C2-8C244AA3AD27}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A487-F644-88C2-8C244AA3AD27}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A487-F644-88C2-8C244AA3AD27}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$5:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Homeworks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>In-Class</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Final Project</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51A2-D445-BD3B-0B8E17AB09B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -244,17 +502,17 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$8</c:f>
+              <c:f>Sheet1!$B$12:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Homeworks</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quizzes</c:v>
+                  <c:v>Midterm</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mini-Projects</c:v>
+                  <c:v>In-Class</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Final Project</c:v>
@@ -264,7 +522,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$8</c:f>
+              <c:f>Sheet1!$C$12:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -285,7 +543,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51A2-D445-BD3B-0B8E17AB09B2}"/>
+              <c16:uniqueId val="{00000000-751D-B049-8973-115C5C10247D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -392,7 +650,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -922,9 +1739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -944,6 +1761,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2106291F-1BE1-E5E2-F739-8C346A6660B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1249,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E9686-A9DF-CD48-B752-3B95B96126E1}">
-  <dimension ref="B4:C9"/>
+  <dimension ref="B4:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,15 +2126,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -1294,7 +2139,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -1306,6 +2151,52 @@
         <v>100</v>
       </c>
     </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>SUM(C12:C15)</f>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
